--- a/04. Project Timeline/Cost Estimates.xlsx
+++ b/04. Project Timeline/Cost Estimates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/archishabhattacharya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/archishabhattacharya/Library/CloudStorage/OneDrive-Personal/Documents/School/University of Regina/VisuSpeak/04. Project Timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E10D8C-B25A-E341-BE88-F179387199B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74ED9C4-7150-8147-9EE3-92F3D81EEEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="14400" windowHeight="16320" activeTab="1" xr2:uid="{3D3CEA7C-0E16-4C1E-96B5-2E9AF1160AF0}"/>
+    <workbookView xWindow="13700" yWindow="7540" windowWidth="35780" windowHeight="21720" activeTab="1" xr2:uid="{3D3CEA7C-0E16-4C1E-96B5-2E9AF1160AF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>COST ESTIMATES</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>Server Rented for January 2024</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Domain name registration for 1 year</t>
+  </si>
+  <si>
+    <t>GoDaddy</t>
   </si>
 </sst>
 </file>
@@ -287,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -323,6 +332,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,11 +365,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,37 +698,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -834,29 +844,29 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="21">
         <f>SUM(G5:G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -950,28 +960,28 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="20">
         <f>SUM(G14:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="24">
         <f>G11+G20</f>
         <v>0</v>
@@ -994,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E94E4BA-A91A-5941-AC55-0AC1DDAE0C0F}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1013,42 +1023,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1092,14 +1102,14 @@
       <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="25">
         <v>45231</v>
       </c>
       <c r="G5" s="13">
         <v>5.17</v>
       </c>
       <c r="H5" s="14">
-        <f>B5*G5</f>
+        <f t="shared" ref="H5:H9" si="0">B5*G5</f>
         <v>5.17</v>
       </c>
     </row>
@@ -1119,14 +1129,14 @@
       <c r="E6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="25">
         <v>45261</v>
       </c>
       <c r="G6" s="13">
         <v>2.04</v>
       </c>
       <c r="H6" s="14">
-        <f>B6*G6</f>
+        <f t="shared" si="0"/>
         <v>2.04</v>
       </c>
     </row>
@@ -1146,14 +1156,14 @@
       <c r="E7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="25">
         <v>45234</v>
       </c>
       <c r="G7" s="13">
         <v>5</v>
       </c>
       <c r="H7" s="14">
-        <f>B7*G7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1173,14 +1183,14 @@
       <c r="E8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="25">
         <v>45261</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
       </c>
       <c r="H8" s="14">
-        <f>B8*G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1200,56 +1210,78 @@
       <c r="E9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="25">
         <v>45292</v>
       </c>
       <c r="G9" s="13">
         <v>0</v>
       </c>
       <c r="H9" s="14">
-        <f>B9*G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="25">
+        <v>45332</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F11" s="25">
         <v>45323</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>18.079999999999998</v>
       </c>
-      <c r="H10" s="14">
-        <f>B10*G10</f>
+      <c r="H11" s="14">
+        <f>B11*G11</f>
         <v>18.079999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="20">
-        <f>SUM(H5:H10)</f>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="20">
+        <f>SUM(H5:H11)</f>
         <v>30.29</v>
       </c>
     </row>
@@ -1258,7 +1290,7 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/04. Project Timeline/Cost Estimates.xlsx
+++ b/04. Project Timeline/Cost Estimates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/archishabhattacharya/Library/CloudStorage/OneDrive-Personal/Documents/School/University of Regina/VisuSpeak/04. Project Timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74ED9C4-7150-8147-9EE3-92F3D81EEEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492D07A8-7FAF-5C4E-BBB1-19BA36B5F67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13700" yWindow="7540" windowWidth="35780" windowHeight="21720" activeTab="1" xr2:uid="{3D3CEA7C-0E16-4C1E-96B5-2E9AF1160AF0}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$4:$H$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>COST ESTIMATES</t>
   </si>
@@ -155,6 +158,21 @@
   </si>
   <si>
     <t>GoDaddy</t>
+  </si>
+  <si>
+    <t>Server Rented for February 2024</t>
+  </si>
+  <si>
+    <t>Server Rented for March 2024</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Subscription for ODIO.AI</t>
+  </si>
+  <si>
+    <t>ODIO.AI</t>
   </si>
 </sst>
 </file>
@@ -296,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -333,6 +351,8 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -365,7 +385,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,37 +717,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -844,29 +863,29 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="21">
         <f>SUM(G5:G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -960,28 +979,28 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="20">
         <f>SUM(G14:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="24">
         <f>G11+G20</f>
         <v>0</v>
@@ -1004,61 +1023,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E94E4BA-A91A-5941-AC55-0AC1DDAE0C0F}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1109,62 +1128,62 @@
         <v>5.17</v>
       </c>
       <c r="H5" s="14">
-        <f t="shared" ref="H5:H9" si="0">B5*G5</f>
+        <f>B5*G5</f>
         <v>5.17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="25">
-        <v>45261</v>
+        <v>45234</v>
       </c>
       <c r="G6" s="13">
-        <v>2.04</v>
+        <v>5</v>
       </c>
       <c r="H6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.04</v>
+        <f>B6*G6</f>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F7" s="25">
-        <v>45234</v>
+        <v>45261</v>
       </c>
       <c r="G7" s="13">
-        <v>5</v>
+        <v>2.04</v>
       </c>
       <c r="H7" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>B7*G7</f>
+        <v>2.04</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1190,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="14">
-        <f t="shared" si="0"/>
+        <f>B8*G8</f>
         <v>0</v>
       </c>
     </row>
@@ -1217,80 +1236,170 @@
         <v>0</v>
       </c>
       <c r="H9" s="14">
-        <f t="shared" si="0"/>
+        <f>B9*G9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F10" s="25">
-        <v>45332</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+        <v>45323</v>
+      </c>
+      <c r="G10" s="13">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="H10" s="14">
+        <f>B10*G10</f>
+        <v>18.079999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F11" s="25">
-        <v>45323</v>
+        <v>45332</v>
       </c>
       <c r="G11" s="13">
-        <v>18.079999999999998</v>
+        <v>16.79</v>
       </c>
       <c r="H11" s="14">
         <f>B11*G11</f>
-        <v>18.079999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="25">
+        <v>45351</v>
+      </c>
+      <c r="G12" s="13">
+        <v>28.84</v>
+      </c>
+      <c r="H12" s="14">
+        <f>B12*G12</f>
+        <v>28.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="25">
+        <v>45383</v>
+      </c>
+      <c r="G13" s="13">
+        <v>28.64</v>
+      </c>
+      <c r="H13" s="14">
+        <f>B13*G13</f>
+        <v>28.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="25">
+        <v>45384</v>
+      </c>
+      <c r="G14" s="13">
+        <v>34.81</v>
+      </c>
+      <c r="H14" s="14">
+        <f>B14*G14</f>
+        <v>34.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="20">
-        <f>SUM(H5:H11)</f>
-        <v>30.29</v>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="20">
+        <f>SUM(H5:H14)</f>
+        <v>139.37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <autoFilter ref="A4:H4" xr:uid="{4E94E4BA-A91A-5941-AC55-0AC1DDAE0C0F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H15">
+      <sortCondition ref="F4:F15"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
